--- a/Relationales Modell.xlsx
+++ b/Relationales Modell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MNSSERVER\schueler.jschoell$\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MNSSERVER\schueler.Jschoell$\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE66D54C-AD9C-4935-8DD0-9A79977EB9FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3583C766-5440-48DC-8702-CB883D83CDCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{29C59AC6-7114-480E-91B3-234CCA6A914C}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>tbl_dozent</t>
   </si>
   <si>
-    <t>tbl_schueler</t>
-  </si>
-  <si>
     <t>tbl_kurs</t>
   </si>
   <si>
@@ -63,21 +60,12 @@
     <t>Kursgebühr</t>
   </si>
   <si>
-    <t>Kursort</t>
-  </si>
-  <si>
-    <t>Teilnehmer</t>
-  </si>
-  <si>
     <t>Vorname</t>
   </si>
   <si>
     <t>Nachname</t>
   </si>
   <si>
-    <t>tbl_Wohnort</t>
-  </si>
-  <si>
     <t>PLZ</t>
   </si>
   <si>
@@ -118,6 +106,27 @@
   </si>
   <si>
     <t>PK_teilnehmer</t>
+  </si>
+  <si>
+    <t>tbl_teilnehmer</t>
+  </si>
+  <si>
+    <t>FK_Kurs</t>
+  </si>
+  <si>
+    <t>FK_Ort</t>
+  </si>
+  <si>
+    <t>tbl_Ort</t>
+  </si>
+  <si>
+    <t>Länge</t>
+  </si>
+  <si>
+    <t>Max. Teilnehmer</t>
+  </si>
+  <si>
+    <t>Min. Teilnehmer</t>
   </si>
 </sst>
 </file>
@@ -134,7 +143,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -248,36 +256,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,7 +608,7 @@
   <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,310 +619,319 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="3" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
@@ -922,35 +942,32 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Relationales Modell.xlsx
+++ b/Relationales Modell.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MNSSERVER\schueler.Jschoell$\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MNSSERVER\schueler.jschoell$\Dokumente\Schule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3583C766-5440-48DC-8702-CB883D83CDCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8FCD61-CAFD-446E-8430-F2C27CFFA2E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{29C59AC6-7114-480E-91B3-234CCA6A914C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>tbl_dozent</t>
   </si>
@@ -33,21 +33,9 @@
     <t>tbl_kurs</t>
   </si>
   <si>
-    <t>Ort</t>
-  </si>
-  <si>
     <t>PK_dozent</t>
   </si>
   <si>
-    <t>ort</t>
-  </si>
-  <si>
-    <t>plz</t>
-  </si>
-  <si>
-    <t>Addresse</t>
-  </si>
-  <si>
     <t>PK_kurs</t>
   </si>
   <si>
@@ -60,6 +48,9 @@
     <t>Kursgebühr</t>
   </si>
   <si>
+    <t>Kursort</t>
+  </si>
+  <si>
     <t>Vorname</t>
   </si>
   <si>
@@ -84,12 +75,6 @@
     <t>Ausbildungsbetrieb</t>
   </si>
   <si>
-    <t>PK_betrieb</t>
-  </si>
-  <si>
-    <t>PK_wohnort</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -111,32 +96,72 @@
     <t>tbl_teilnehmer</t>
   </si>
   <si>
-    <t>FK_Kurs</t>
-  </si>
-  <si>
-    <t>FK_Ort</t>
-  </si>
-  <si>
-    <t>tbl_Ort</t>
-  </si>
-  <si>
-    <t>Länge</t>
-  </si>
-  <si>
-    <t>Max. Teilnehmer</t>
-  </si>
-  <si>
-    <t>Min. Teilnehmer</t>
+    <t>tbl_ort</t>
+  </si>
+  <si>
+    <t>tbl_rechnung</t>
+  </si>
+  <si>
+    <t>Kursnummer</t>
+  </si>
+  <si>
+    <t>tbl_kurs_teilnehmer</t>
+  </si>
+  <si>
+    <t>FK_teilnehmer</t>
+  </si>
+  <si>
+    <t>Stadt</t>
+  </si>
+  <si>
+    <t>Honorar</t>
+  </si>
+  <si>
+    <t>Kursumfang</t>
+  </si>
+  <si>
+    <t>PK_rechnung</t>
+  </si>
+  <si>
+    <t>Art der Leistung</t>
+  </si>
+  <si>
+    <t>Kursdatum</t>
+  </si>
+  <si>
+    <t>Betrag + MWST</t>
+  </si>
+  <si>
+    <t>FK_teilnehemer</t>
+  </si>
+  <si>
+    <t>FK_ort</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>PK_ort</t>
+  </si>
+  <si>
+    <t>FK_ausbildungsbetrieb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,12 +173,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -162,68 +199,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -252,43 +227,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -297,6 +362,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3AA1C6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -605,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B379D5-B34B-474F-BBD1-022647513918}">
-  <dimension ref="B2:I22"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,151 +686,175 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="K3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="K4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="8" t="s">
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
+      <c r="I8" s="15"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="5"/>
+      <c r="E10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="11"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -769,145 +863,212 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="2:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="K12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="K13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="K14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="I15" s="9"/>
+      <c r="K15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="K16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="K17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="K18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="K19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="81">
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B2:C2"/>
@@ -970,5 +1131,6 @@
     <mergeCell ref="H21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Relationales Modell.xlsx
+++ b/Relationales Modell.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MNSSERVER\schueler.mgross$\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MNSSERVER\schueler.thorn$\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DA8D3AE-2D70-47ED-89D1-F57283323FB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E665F9-68B6-4BE1-8565-7E21C4CB700B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{29C59AC6-7114-480E-91B3-234CCA6A914C}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>tbl_dozent</t>
   </si>
@@ -209,6 +208,9 @@
   </si>
   <si>
     <t>Kuerzel</t>
+  </si>
+  <si>
+    <t>Rechnungsart</t>
   </si>
 </sst>
 </file>
@@ -424,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -435,16 +437,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -453,13 +467,67 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -468,103 +536,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -891,7 +887,7 @@
   <dimension ref="B1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="K7" sqref="K7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,320 +900,322 @@
   <sheetData>
     <row r="1" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="30"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="K2" s="15" t="s">
+      <c r="I2" s="20"/>
+      <c r="K2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="16"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="44"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="K3" s="17" t="s">
+      <c r="I3" s="40"/>
+      <c r="K3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="18"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="24"/>
+      <c r="I4" s="38"/>
       <c r="K4" s="6" t="s">
         <v>54</v>
       </c>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="38"/>
       <c r="K5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="38"/>
       <c r="K6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
+      <c r="I7" s="38"/>
+      <c r="K7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="K9" s="15" t="s">
+      <c r="I9" s="44"/>
+      <c r="K9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="16"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="K10" s="47" t="s">
+      <c r="I10" s="42"/>
+      <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="38"/>
       <c r="K11" s="6" t="s">
         <v>2</v>
       </c>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="38"/>
       <c r="K12" s="6" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="38"/>
       <c r="K13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="24"/>
+      <c r="I14" s="38"/>
       <c r="K14" s="6" t="s">
         <v>58</v>
       </c>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="K15" s="8" t="s">
+      <c r="I15" s="26"/>
+      <c r="K15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="K17" s="15" t="s">
+      <c r="I17" s="5"/>
+      <c r="K17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="K18" s="17" t="s">
+      <c r="I18" s="10"/>
+      <c r="K18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="18"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
@@ -1254,7 +1252,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="11" t="s">
         <v>41</v>
       </c>
       <c r="L20" s="7"/>
@@ -1270,9 +1268,9 @@
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="K21" s="19" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="45"/>
+      <c r="K21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="L21" s="7"/>
@@ -1362,33 +1360,86 @@
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
-      <c r="K28" s="8" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="K28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L28" s="9"/>
+      <c r="L28" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
+  <mergeCells count="105">
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
@@ -1413,72 +1464,20 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
